--- a/Folding Table Remaining Work and Possible Upgrades.xlsx
+++ b/Folding Table Remaining Work and Possible Upgrades.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\na.autoliv.int\users$\otcusers\benjamin.garner\My Documents\Internship\2021\Folding Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\na.autoliv.int\users$\otcusers\benjamin.garner\My Documents\GitHub\PAB-Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DD1275-3FE3-47E7-8C59-C2452E976DC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF4CEF7-EC5C-4760-930F-42108F85B5BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0283FF9E-1125-4D57-85F6-F70353099FBD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Folding Table Remaining Work and Possible Upgrades</t>
   </si>
@@ -54,18 +54,9 @@
     <t>Pnumatics</t>
   </si>
   <si>
-    <t>Build and install a pressure regulator system</t>
-  </si>
-  <si>
     <t>Adjustable pressure range, air filter, master on-off valve, quick-connect</t>
   </si>
   <si>
-    <t>Install pnumatic solenoids OR a manual button/valve system</t>
-  </si>
-  <si>
-    <t>At the current point in time the cylinders are configured to engage(extend) with pressure in, then bleed out the remaining pressure after the valve is closed passively. This only requires two solenoids but does not reset the shaft. I'm unsure if that will be a hassle or not. Alternatively an extra two solenoids can be added to connect to the upper port and apply a positive pressure to reset the extension</t>
-  </si>
-  <si>
     <t>If going with solenoids to control the clamps from the controller screen:Use a 12V pnumatic solenoid threaded for 1/4NTP push-connect fittings. A relay driven by an octocoupler connected to an arduino pin must be used to switch the 12V source to the solenoid due to the voltage level and current draw.</t>
   </si>
   <si>
@@ -84,22 +75,43 @@
     <t>Print and install bearing pad shims</t>
   </si>
   <si>
-    <t>Sizes 0.5mm, 1mm, 1.5mm, 2mm are in the designs. The peel apart 8020 one may be used to finely adjust.</t>
-  </si>
-  <si>
     <t>General</t>
   </si>
   <si>
     <t xml:space="preserve">Ensure all endstops are installed and connected. </t>
   </si>
   <si>
-    <t>They are driven Normally Open (NO). When the endstop is activated a circuit is formed and broken when not. Use a pin with INPUT_PULLUP enabled on it connected to one end of the switch with the other end of the switch connected to ground. An activation has occured if the read voltage on the pin drops to near zero.</t>
-  </si>
-  <si>
     <t>Possible Upgrades</t>
   </si>
   <si>
-    <t>Use a phototransistor/photoresistor to determine if a cushion is put in the clamp location to automatically engage it some period after detection OR use the same as a non-contact switch (possible on top the clamp plate) to trigger it manually.</t>
+    <t>Sizes 0.5mm, 1mm, 1.5mm, 2mm are in the designs. The peel apart 8020 ones may be used to finely adjust.</t>
+  </si>
+  <si>
+    <t>Build pressure regulator system (with teflon on threads to prevent leaks)</t>
+  </si>
+  <si>
+    <t>Bug in the input screen allowing for multiple demical points in the number, breaking the float variables when done.</t>
+  </si>
+  <si>
+    <t>Use a phototransistor/photoresistor to determine if a cushion is put in the clamp location to automatically engage it some period after detection OR use the same as a non-contact switch (possibly on top the clamp plate) to trigger it manually.</t>
+  </si>
+  <si>
+    <t>Calibration</t>
+  </si>
+  <si>
+    <t>The distance from the housing center to the extents of the clamp center at their min and max positions are key. These values will offset the default values from 0 to the actual position fo the clamp.</t>
+  </si>
+  <si>
+    <t>Use the CMM Arm to get calibrated initial offsets when using for the first time. (Measured from cylinder shaft center)</t>
+  </si>
+  <si>
+    <t>They are driven Normally Open (NO). When the endstop is activated a circuit is formed and broken when not. Use a pin with INPUT_PULLUP enabled on it connected to one end of the switch with the other end of the switch connected to ground. An activation has occured if the read voltage on the pin drops to near zero. The mirrored endstops on left and right sides should be joined to the same pin.</t>
+  </si>
+  <si>
+    <t>Unfix the leadscrew couplers and turn each side by hand until the top/bottom carraiges are centered and flush</t>
+  </si>
+  <si>
+    <t>(optional) Replace valves with pnumatic solenoids</t>
   </si>
 </sst>
 </file>
@@ -167,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -185,10 +197,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -197,7 +218,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C87AA40-F256-4EA0-9B84-1FF08A92D337}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -527,22 +554,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -550,20 +577,20 @@
     </row>
     <row r="3" spans="1:7" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="9"/>
+      <c r="B3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="13"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -571,11 +598,11 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -603,95 +630,128 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="9"/>
+      <c r="B10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="13"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="78" x14ac:dyDescent="0.3">
-      <c r="C17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="12" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="15"/>
+    </row>
+    <row r="23" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="12"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A21:C21"/>
+  <mergeCells count="14">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
